--- a/Reference/Button List.xlsx
+++ b/Reference/Button List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay\Documents\GitHub\Tipo-Braille-Keyboard\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D6D0ED-F4A9-4D46-8655-C5EDF2C65A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E160FC4-6DBB-434F-849A-71B9CB971484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{AF06538D-3BC7-40CE-B69B-0F32ECDD62E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF06538D-3BC7-40CE-B69B-0F32ECDD62E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Topic</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Hold Volume UP+DOWN</t>
+  </si>
+  <si>
+    <t>Braille Button</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B02A5F2-DE25-466F-BD8B-0EC6F1FE2B77}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +494,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:B4"/>
